--- a/medicine/Psychotrope/Maison_de_Champagne/Maison_de_Champagne.xlsx
+++ b/medicine/Psychotrope/Maison_de_Champagne/Maison_de_Champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison de Champagne est une entreprise viti-vinicole, qui distribue les produits d'une marque de champagne[1],[2].
-Elle s'occupe de la production de champagne, mais doit également être une entreprise de dimension industrielle et commerciale. Elle comprend des moyens matériels et humains pour le mettre en œuvre, et respectant les critères d'un syndicat[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison de Champagne est une entreprise viti-vinicole, qui distribue les produits d'une marque de champagne,.
+Elle s'occupe de la production de champagne, mais doit également être une entreprise de dimension industrielle et commerciale. Elle comprend des moyens matériels et humains pour le mettre en œuvre, et respectant les critères d'un syndicat.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les entreprises qui ne réunissent pas les conditions de production, de vente, et l'adhésion à l'Union des Maisons de Champagne ne peuvent être considérées comme telles. Ce sont dans un cas, des entreprises viticoles (ne faisant pas la transformation en vin, ni la commercialisation), ou alors des négociants si elle ne font que la commercialisation. Les vignerons respectant ces critères mais n'ayant pas un statut juridique, fiscal et social « industriel et commercial » peuvent être cependant des « membres associés »[4].
-Le champagne vendu par les maisons de Champagne peut donc provenir de l'achat de raisins auprès de viticulteurs, d'autres vignerons, ou de la récolte de ses vignes en propre[n 1],[2]. Elle s'occupe de la vinification et des assemblages, et commercialise les vins.
-Les cuvées vendues sont souvent issues de sources multiples, donnant suite à l'assemblage des cuvées. Ce point peut cependant diviser, certaines maisons vendant des cuvées parcellaires[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les entreprises qui ne réunissent pas les conditions de production, de vente, et l'adhésion à l'Union des Maisons de Champagne ne peuvent être considérées comme telles. Ce sont dans un cas, des entreprises viticoles (ne faisant pas la transformation en vin, ni la commercialisation), ou alors des négociants si elle ne font que la commercialisation. Les vignerons respectant ces critères mais n'ayant pas un statut juridique, fiscal et social « industriel et commercial » peuvent être cependant des « membres associés ».
+Le champagne vendu par les maisons de Champagne peut donc provenir de l'achat de raisins auprès de viticulteurs, d'autres vignerons, ou de la récolte de ses vignes en propre[n 1],. Elle s'occupe de la vinification et des assemblages, et commercialise les vins.
+Les cuvées vendues sont souvent issues de sources multiples, donnant suite à l'assemblage des cuvées. Ce point peut cependant diviser, certaines maisons vendant des cuvées parcellaires.
 Les bruts sans année représentent entre 80 et 85 % des ventes. La plus forte croissance est actuellement sur les champagnes rosés.
 Les cuvées millésimées ne dépassent jamais plus de 5 % des ventes de champagne.
 </t>
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Ruinart est la première et la plus ancienne maison de champagne créée le 1er septembre 1729 à Épernay, la maison Gosset, fondée en 1584, est quant à elle, la plus ancienne maison de la Champagne.
 Le 4 novembre 1882 le Syndicat du Commerce des vins de Champagne se constitue, il est reconnu officiellement par la loi du 21 mars 1884 qui autorise la création des syndicats professionnels. Comptant une vingtaine de membres à l'origine, il en atteint 76 aujourd'hui.
@@ -579,9 +595,11 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il existe 334 maisons de Champagne, dont la répartition selon le chiffre d'affaires se fait comme suit :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 334 maisons de Champagne, dont la répartition selon le chiffre d'affaires se fait comme suit :
 20 entreprises réalisant plus de 50 millions d'euros de chiffre d'affaires,
 29 entreprises entre 10 et 50 millions d'euros de chiffre d'affaires,
 48 entreprises entre 0,5 et 10 millions d'euros de chiffre d'affaires,
@@ -589,8 +607,43 @@
 117 entreprises dont le chiffre d'affaires n'est pas déclaré (valeur faible).
 En 2013, 306 maisons de négoce en vin de Champagne, dont 12 grands groupes, ont représenté 55 % des expéditions (soit 170 millions de bouteilles).
 Cinq groupes sont cotés en bourse : LVMH, Vranken-Pommery Monopole, Lanson-BCC, Laurent-Perrier, et Pernod Ricard.
-Fortunes
-Selon le magazine Challenges, sur les plus importantes fortunes françaises, les plus gros propriétaires de maisons de champagne se sont à nouveau considérablement enrichis en 2010 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fortunes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le magazine Challenges, sur les plus importantes fortunes françaises, les plus gros propriétaires de maisons de champagne se sont à nouveau considérablement enrichis en 2010 :
 Famille Descours, propriétaire de Charles Heidsieck et Piper-Heidsieck, 800 millions d'euros, 56e fortune.
 Famille Rouzaud, propriétaire de Louis Roederer, 650 millions d'euros, 73e fortune.
 Famille de Nonancourt, propriétaire de Laurent-Perrier, 302 millions d'euros, 152e fortune.
@@ -599,9 +652,43 @@
 Alain Thiénot, propriétaire de Canard-Duchêne, Joseph Perrier, Thiénot, 200 millions d'euros, 200e fortune.
 Bruno Paillard, propriétaire de Lanson, Chanoine, Boizel, De Venoge, 188 millions d'euros, 229e fortune.
 Pierre Taittinger, propriétaire de Taittinger, 110 millions d'euros, 333e fortune.
-Philippe Baijot, propriétaire de Boizel Chanoine Champagnes, 69 millions.
-Production
-Les dix premières maisons en termes de volumes de production sont en 2012[6]:
+Philippe Baijot, propriétaire de Boizel Chanoine Champagnes, 69 millions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les dix premières maisons en termes de volumes de production sont en 2012:
 Moët &amp; Chandon : 32 millions de bouteilles ;
 Veuve Clicquot : 16 millions de bouteilles ;
 Nicolas Feuillatte : 9 millions de bouteilles ;
@@ -615,48 +702,88 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Maison_de_Champagne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maison_de_Champagne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Maisons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Grandes maisons
-Des études historiques plus poussées montreraient probablement[style à revoir] que le système des « maisons » de Champagne ne constitue que l'avatar récent d'une organisation plus ancienne, étroitement contrôlée par les abbayes de la région, notamment Saint-Pierre de Hautvillers, ainsi que quelques grands propriétaires de vignes. La distribution des vins de Champagne obéissait à une nécessité pour les monastères, le clergé ayant alors à financer les hôpitaux, une grande part de l'enseignement, et la charité. De plus, certaines maisons de négoce sont nées bien avant le XVIIIe siècle en Champagne ; il en existait déjà plusieurs à la Renaissance.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Grandes maisons</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études historiques plus poussées montreraient probablement[style à revoir] que le système des « maisons » de Champagne ne constitue que l'avatar récent d'une organisation plus ancienne, étroitement contrôlée par les abbayes de la région, notamment Saint-Pierre de Hautvillers, ainsi que quelques grands propriétaires de vignes. La distribution des vins de Champagne obéissait à une nécessité pour les monastères, le clergé ayant alors à financer les hôpitaux, une grande part de l'enseignement, et la charité. De plus, certaines maisons de négoce sont nées bien avant le XVIIIe siècle en Champagne ; il en existait déjà plusieurs à la Renaissance.
 Le tableau qui suit ne mentionne pas plusieurs grandes et anciennes maisons de Champagne, toujours actives. En particulier, la maison Moët et Chandon, initialement Moët, fondée en 1743 à Épernay, mérite une place à part. Étroitement liée à l'histoire et au développement de la viticulture à Épernay et dans sa proche région, elle est issue des maisons Moët, dont la famille s'occupe de vignes depuis la Renaissance à Épernay, et Chandon de Briailles, noble lignage champenois fortement impliqué dans le développement des connaissances de la viticulture vers 1850-1900. On doit aussi au comte de Chandon de Briailles, un grand érudit local, de précieuses études historiques sur Épernay et ses vignobles.
 La maison Hennequin, fondée en 1947 à Venteuil, devrait aussi avoir une place à part. Son nom est attesté à Aÿ depuis le XVIIe siècle, où elle a fourni un maire royal. C'est un exemple réussi de famille de vignerons entré dans le négoce des vins de Champagne.
-Petites maisons
-Les petites maisons peuvent faire partie de la route touristique du Champagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_Champagne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maisons</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Petites maisons</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les petites maisons peuvent faire partie de la route touristique du Champagne.
 Champagne Agrapart &amp; Fils (en) à Avize, maison fondée en 1894 ;
 Champagne Château Malakoff, groupe appartenant à Laurent-Perrier et réunissant les maisons historiques Beaumet, Jeanmaire et Oudinot ;
-Champagne De Sousa à Avize, dans la Côte des Blancs [7],[8],[9]
+Champagne De Sousa à Avize, dans la Côte des Blancs 
 Champagne Delamotte, elle appartient aujourd'hui à Laurent-Perrier ;
 Champagne Egly-Ouriet (en) à Ambonnay, dans la Montagne de Reims ;
-Champagne EPC[10],[11] ;
+Champagne EPC, ;
 Champagne Jacquesson ;
 Champagne A.R. Lenoble ;
 Champagne Moncuit (de) à Le Mesnil-sur-Oger ;
-Champagne Moutard à Buxeuil dans la Côte des Bar[12],[13] ;
+Champagne Moutard à Buxeuil dans la Côte des Bar, ;
 Champagne Pannier, une union de producteurs installée à Château-Thierry ;
 Champagne Philipponnat, appartient au groupe Boizel Chanoine Champagne ;
 Champagne Jacques Selosse ;
